--- a/inst/dados_premissas/2022/nomes_dist_powerbi.xlsx
+++ b/inst/dados_premissas/2022/nomes_dist_powerbi.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PDE2032\dados_premissas\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3525D1-509F-4B6B-B83C-73051443A584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57197C61-0F7B-4454-B098-CD6B2C256E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$115</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="133">
   <si>
     <t>sig_agente</t>
   </si>
@@ -361,9 +364,6 @@
     <t>CELESC</t>
   </si>
   <si>
-    <t>ENEL GO</t>
-  </si>
-  <si>
     <t>EQUATORIAL PA</t>
   </si>
   <si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>CERAL ARAPOTI</t>
+  </si>
+  <si>
+    <t>Equatorial GO</t>
+  </si>
+  <si>
+    <t>EQUATORIAL GO</t>
   </si>
 </sst>
 </file>
@@ -802,9 +808,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
@@ -915,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -931,7 +937,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -939,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1115,7 +1121,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1139,7 +1145,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1307,7 +1313,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1331,7 +1337,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1339,7 +1345,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1347,7 +1353,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1355,7 +1361,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1363,7 +1369,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1371,7 +1377,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1379,7 +1385,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1475,7 +1481,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1491,7 +1497,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1577,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1585,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1672,15 +1678,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -1693,7 +1699,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
@@ -1717,13 +1723,22 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>131</v>
       </c>
-      <c r="B114" t="s">
-        <v>110</v>
+      <c r="B115" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/dados_premissas/2022/nomes_dist_powerbi.xlsx
+++ b/inst/dados_premissas/2022/nomes_dist_powerbi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PDE2033_2RQ\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57197C61-0F7B-4454-B098-CD6B2C256E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A95F8D-92EC-486B-864F-795FD686B2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
   <si>
     <t>sig_agente</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>EQUATORIAL GO</t>
+  </si>
+  <si>
+    <t>PACTO ENERGIA PR</t>
   </si>
 </sst>
 </file>
@@ -488,9 +491,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,9 +531,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,26 +566,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,26 +601,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -808,19 +777,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +797,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -836,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -844,7 +813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -852,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -860,7 +829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -868,7 +837,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -876,7 +845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -884,7 +853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -892,7 +861,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -900,7 +869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -908,7 +877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -916,7 +885,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -924,7 +893,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -932,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -940,7 +909,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -948,7 +917,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -956,7 +925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -964,7 +933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -972,7 +941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -980,7 +949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -988,7 +957,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -996,7 +965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +973,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +989,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1028,7 +997,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1036,7 +1005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1044,7 +1013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1076,7 +1045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1084,7 +1053,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1092,7 +1061,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1100,7 +1069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1108,7 +1077,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1116,7 +1085,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1124,7 +1093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1140,7 +1109,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1117,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1164,7 +1133,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1172,7 +1141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1149,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1188,7 +1157,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1196,7 +1165,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1204,7 +1173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1212,7 +1181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1220,7 +1189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1228,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1236,7 +1205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1244,7 +1213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1252,7 +1221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1260,7 +1229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1268,7 +1237,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1276,7 +1245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1284,7 +1253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1292,7 +1261,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1300,7 +1269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1308,7 +1277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1316,7 +1285,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1324,7 +1293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1332,7 +1301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1340,7 +1309,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1348,7 +1317,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1356,7 +1325,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1364,7 +1333,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1372,7 +1341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1380,7 +1349,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1388,7 +1357,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1396,7 +1365,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1404,7 +1373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1412,7 +1381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1420,7 +1389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1428,7 +1397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1436,7 +1405,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1444,7 +1413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1452,7 +1421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1460,7 +1429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1468,7 +1437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1476,7 +1445,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1484,7 +1453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1492,7 +1461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1500,7 +1469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1508,7 +1477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1516,7 +1485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1524,7 +1493,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1532,7 +1501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1540,7 +1509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1548,7 +1517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1556,7 +1525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1564,7 +1533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1572,7 +1541,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1580,7 +1549,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1588,7 +1557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1596,7 +1565,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1604,7 +1573,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1612,7 +1581,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -1620,7 +1589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -1628,7 +1597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -1636,7 +1605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1644,7 +1613,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1652,7 +1621,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -1660,7 +1629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -1668,7 +1637,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1676,7 +1645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -1684,7 +1653,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -1692,12 +1661,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -1705,7 +1674,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -1713,7 +1682,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -1721,7 +1690,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -1729,16 +1698,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>131</v>
       </c>
       <c r="B115" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/dados_premissas/2022/nomes_dist_powerbi.xlsx
+++ b/inst/dados_premissas/2022/nomes_dist_powerbi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PDE2033_2RQ\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PLAN24-28\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A95F8D-92EC-486B-864F-795FD686B2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA1A1EA-DCE1-4D88-934E-AEFC02ABA121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="135">
   <si>
     <t>sig_agente</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>PACTO ENERGIA PR</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -777,19 +780,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +800,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -805,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -813,7 +816,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -821,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -829,7 +832,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -837,7 +840,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -845,7 +848,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -853,7 +856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -861,7 +864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -869,7 +872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -877,7 +880,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -885,7 +888,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -893,7 +896,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -901,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -909,7 +912,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -917,7 +920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -925,7 +928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -933,7 +936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -941,7 +944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -949,7 +952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -957,7 +960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -965,7 +968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -973,7 +976,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -981,7 +984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -989,7 +992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -1661,12 +1664,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -1706,12 +1709,20 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>133</v>
       </c>
       <c r="B116" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
